--- a/04_Model_Saved/NN_full_v3_BO_test_2/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_2/MultiTaskModel_NiCrCoVFe_KW99_wt_pct_ML.xlsx
@@ -505,16 +505,16 @@
         <v>10.27148578895017</v>
       </c>
       <c r="G2" t="n">
-        <v>292.3219909667969</v>
+        <v>419.387451171875</v>
       </c>
       <c r="H2" t="n">
-        <v>87.84640502929688</v>
+        <v>73.43923187255859</v>
       </c>
       <c r="I2" t="n">
-        <v>448.9675903320312</v>
+        <v>440.815673828125</v>
       </c>
       <c r="J2" t="n">
-        <v>218.26171875</v>
+        <v>61.19903945922852</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>10.49540628405087</v>
       </c>
       <c r="G3" t="n">
-        <v>314.7673950195312</v>
+        <v>420.3943786621094</v>
       </c>
       <c r="H3" t="n">
-        <v>93.50308990478516</v>
+        <v>92.73709106445312</v>
       </c>
       <c r="I3" t="n">
-        <v>465.4130249023438</v>
+        <v>463.6799011230469</v>
       </c>
       <c r="J3" t="n">
-        <v>217.5704498291016</v>
+        <v>75.84745788574219</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>11.11292799977388</v>
       </c>
       <c r="G4" t="n">
-        <v>324.1915283203125</v>
+        <v>421.3071899414062</v>
       </c>
       <c r="H4" t="n">
-        <v>95.87254333496094</v>
+        <v>99.74437713623047</v>
       </c>
       <c r="I4" t="n">
-        <v>490.7970275878906</v>
+        <v>481.1211853027344</v>
       </c>
       <c r="J4" t="n">
-        <v>215.6869812011719</v>
+        <v>87.70672607421875</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>11.33579528302992</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5537414550781</v>
+        <v>426.9969787597656</v>
       </c>
       <c r="H5" t="n">
-        <v>103.0345077514648</v>
+        <v>98.23974609375</v>
       </c>
       <c r="I5" t="n">
-        <v>502.5974426269531</v>
+        <v>490.9119262695312</v>
       </c>
       <c r="J5" t="n">
-        <v>204.32177734375</v>
+        <v>91.23475646972656</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>11.53221857575777</v>
       </c>
       <c r="G6" t="n">
-        <v>364.0904235839844</v>
+        <v>421.5888366699219</v>
       </c>
       <c r="H6" t="n">
-        <v>120.1504974365234</v>
+        <v>97.41728973388672</v>
       </c>
       <c r="I6" t="n">
-        <v>484.07568359375</v>
+        <v>481.3458862304688</v>
       </c>
       <c r="J6" t="n">
-        <v>207.9740753173828</v>
+        <v>92.03550720214844</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>11.73836346032553</v>
       </c>
       <c r="G7" t="n">
-        <v>269.7467651367188</v>
+        <v>384.8602600097656</v>
       </c>
       <c r="H7" t="n">
-        <v>93.01781463623047</v>
+        <v>63.74325180053711</v>
       </c>
       <c r="I7" t="n">
-        <v>378.0238342285156</v>
+        <v>389.7902526855469</v>
       </c>
       <c r="J7" t="n">
-        <v>242.7364044189453</v>
+        <v>61.22804641723633</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>12.47588443056982</v>
       </c>
       <c r="G8" t="n">
-        <v>274.6408081054688</v>
+        <v>403.3255615234375</v>
       </c>
       <c r="H8" t="n">
-        <v>86.67071533203125</v>
+        <v>67.18488311767578</v>
       </c>
       <c r="I8" t="n">
-        <v>409.0077209472656</v>
+        <v>425.9098205566406</v>
       </c>
       <c r="J8" t="n">
-        <v>229.1397399902344</v>
+        <v>61.38706207275391</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>13.31360035996819</v>
       </c>
       <c r="G9" t="n">
-        <v>285.1514587402344</v>
+        <v>401.0787353515625</v>
       </c>
       <c r="H9" t="n">
-        <v>84.58390045166016</v>
+        <v>77.34906005859375</v>
       </c>
       <c r="I9" t="n">
-        <v>432.4606018066406</v>
+        <v>452.6302490234375</v>
       </c>
       <c r="J9" t="n">
-        <v>214.7929534912109</v>
+        <v>61.28980255126953</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>14.04586286313179</v>
       </c>
       <c r="G10" t="n">
-        <v>300.9839477539062</v>
+        <v>402.4660034179688</v>
       </c>
       <c r="H10" t="n">
-        <v>82.81254577636719</v>
+        <v>82.75208282470703</v>
       </c>
       <c r="I10" t="n">
-        <v>467.9905700683594</v>
+        <v>475.3905639648438</v>
       </c>
       <c r="J10" t="n">
-        <v>195.2139282226562</v>
+        <v>65.69575500488281</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>14.78596965177877</v>
       </c>
       <c r="G11" t="n">
-        <v>317.6069030761719</v>
+        <v>413.5009460449219</v>
       </c>
       <c r="H11" t="n">
-        <v>82.28669738769531</v>
+        <v>84.4000244140625</v>
       </c>
       <c r="I11" t="n">
-        <v>471.1317749023438</v>
+        <v>482.7289733886719</v>
       </c>
       <c r="J11" t="n">
-        <v>199.0677032470703</v>
+        <v>73.01676177978516</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>14.60750023008277</v>
       </c>
       <c r="G12" t="n">
-        <v>352.4467468261719</v>
+        <v>424.330322265625</v>
       </c>
       <c r="H12" t="n">
-        <v>95.18701934814453</v>
+        <v>86.41638946533203</v>
       </c>
       <c r="I12" t="n">
-        <v>472.7095336914062</v>
+        <v>476.9491271972656</v>
       </c>
       <c r="J12" t="n">
-        <v>204.5873107910156</v>
+        <v>77.47233581542969</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>13.93632017907879</v>
       </c>
       <c r="G13" t="n">
-        <v>393.1260986328125</v>
+        <v>449.5209350585938</v>
       </c>
       <c r="H13" t="n">
-        <v>120.1869583129883</v>
+        <v>83.33013916015625</v>
       </c>
       <c r="I13" t="n">
-        <v>421.4291381835938</v>
+        <v>450.6409912109375</v>
       </c>
       <c r="J13" t="n">
-        <v>233.2886047363281</v>
+        <v>84.06237030029297</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>13.2060787967079</v>
       </c>
       <c r="G14" t="n">
-        <v>244.3244781494141</v>
+        <v>325.4883117675781</v>
       </c>
       <c r="H14" t="n">
-        <v>90.90855407714844</v>
+        <v>75.60993194580078</v>
       </c>
       <c r="I14" t="n">
-        <v>304.8427429199219</v>
+        <v>228.3079223632812</v>
       </c>
       <c r="J14" t="n">
-        <v>254.7687225341797</v>
+        <v>78.76058959960938</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>14.43724685121477</v>
       </c>
       <c r="G15" t="n">
-        <v>252.3378143310547</v>
+        <v>351.154541015625</v>
       </c>
       <c r="H15" t="n">
-        <v>89.61296081542969</v>
+        <v>71.46260070800781</v>
       </c>
       <c r="I15" t="n">
-        <v>342.6914367675781</v>
+        <v>281.4469299316406</v>
       </c>
       <c r="J15" t="n">
-        <v>235.7716522216797</v>
+        <v>80.50292205810547</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>15.77509757365795</v>
       </c>
       <c r="G16" t="n">
-        <v>258.7601318359375</v>
+        <v>372.7741088867188</v>
       </c>
       <c r="H16" t="n">
-        <v>81.96403503417969</v>
+        <v>67.59879302978516</v>
       </c>
       <c r="I16" t="n">
-        <v>369.9859008789062</v>
+        <v>346.5933532714844</v>
       </c>
       <c r="J16" t="n">
-        <v>232.6935882568359</v>
+        <v>75.82794952392578</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>17.01643502058164</v>
       </c>
       <c r="G17" t="n">
-        <v>272.0874938964844</v>
+        <v>385.0032958984375</v>
       </c>
       <c r="H17" t="n">
-        <v>80.36064147949219</v>
+        <v>69.04975128173828</v>
       </c>
       <c r="I17" t="n">
-        <v>395.8346557617188</v>
+        <v>424.2844543457031</v>
       </c>
       <c r="J17" t="n">
-        <v>210.9714965820312</v>
+        <v>68.87860870361328</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>17.57324774662381</v>
       </c>
       <c r="G18" t="n">
-        <v>276.631103515625</v>
+        <v>391.2451171875</v>
       </c>
       <c r="H18" t="n">
-        <v>78.51335144042969</v>
+        <v>73.17526245117188</v>
       </c>
       <c r="I18" t="n">
-        <v>414.5340576171875</v>
+        <v>449.7648010253906</v>
       </c>
       <c r="J18" t="n">
-        <v>199.5230712890625</v>
+        <v>66.71212005615234</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>18.2282289394109</v>
       </c>
       <c r="G19" t="n">
-        <v>306.5210571289062</v>
+        <v>409.8385009765625</v>
       </c>
       <c r="H19" t="n">
-        <v>78.11659240722656</v>
+        <v>73.83038330078125</v>
       </c>
       <c r="I19" t="n">
-        <v>442.1174621582031</v>
+        <v>471.5750122070312</v>
       </c>
       <c r="J19" t="n">
-        <v>198.8722534179688</v>
+        <v>63.59781265258789</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>18.05168677518481</v>
       </c>
       <c r="G20" t="n">
-        <v>339.8214721679688</v>
+        <v>427.5355529785156</v>
       </c>
       <c r="H20" t="n">
-        <v>83.13832092285156</v>
+        <v>72.95128631591797</v>
       </c>
       <c r="I20" t="n">
-        <v>440.8018798828125</v>
+        <v>468.3977661132812</v>
       </c>
       <c r="J20" t="n">
-        <v>213.8520355224609</v>
+        <v>66.47467041015625</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>17.30316829702608</v>
       </c>
       <c r="G21" t="n">
-        <v>396.9322814941406</v>
+        <v>461.4322814941406</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4258499145508</v>
+        <v>70.53590393066406</v>
       </c>
       <c r="I21" t="n">
-        <v>418.1868896484375</v>
+        <v>442.7370300292969</v>
       </c>
       <c r="J21" t="n">
-        <v>234.6955108642578</v>
+        <v>84.93628692626953</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>15.87142913305469</v>
       </c>
       <c r="G22" t="n">
-        <v>454.62890625</v>
+        <v>485.0182800292969</v>
       </c>
       <c r="H22" t="n">
-        <v>137.9444732666016</v>
+        <v>77.98530578613281</v>
       </c>
       <c r="I22" t="n">
-        <v>351.9194641113281</v>
+        <v>399.546630859375</v>
       </c>
       <c r="J22" t="n">
-        <v>286.6023864746094</v>
+        <v>84.62464904785156</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>16.2842163689804</v>
       </c>
       <c r="G23" t="n">
-        <v>238.5009918212891</v>
+        <v>308.9511413574219</v>
       </c>
       <c r="H23" t="n">
-        <v>92.04701232910156</v>
+        <v>76.08972930908203</v>
       </c>
       <c r="I23" t="n">
-        <v>267.6436767578125</v>
+        <v>163.1319274902344</v>
       </c>
       <c r="J23" t="n">
-        <v>257.3797607421875</v>
+        <v>86.75577545166016</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>17.99859633271077</v>
       </c>
       <c r="G24" t="n">
-        <v>242.6907348632812</v>
+        <v>328.7216796875</v>
       </c>
       <c r="H24" t="n">
-        <v>82.55535888671875</v>
+        <v>75.26173400878906</v>
       </c>
       <c r="I24" t="n">
-        <v>295.73828125</v>
+        <v>200.5851135253906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.9512939453125</v>
+        <v>91.43938446044922</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>19.53665474474453</v>
       </c>
       <c r="G25" t="n">
-        <v>250.0441741943359</v>
+        <v>349.6421203613281</v>
       </c>
       <c r="H25" t="n">
-        <v>84.21279907226562</v>
+        <v>75.97801971435547</v>
       </c>
       <c r="I25" t="n">
-        <v>328.0895690917969</v>
+        <v>257.150390625</v>
       </c>
       <c r="J25" t="n">
-        <v>239.5840911865234</v>
+        <v>84.81786346435547</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>21.18080958029204</v>
       </c>
       <c r="G26" t="n">
-        <v>259.8389587402344</v>
+        <v>365.7911376953125</v>
       </c>
       <c r="H26" t="n">
-        <v>77.02478790283203</v>
+        <v>69.79585266113281</v>
       </c>
       <c r="I26" t="n">
-        <v>352.8481140136719</v>
+        <v>344.7947387695312</v>
       </c>
       <c r="J26" t="n">
-        <v>214.3334503173828</v>
+        <v>79.57321166992188</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>22.36133238808863</v>
       </c>
       <c r="G27" t="n">
-        <v>271.8580322265625</v>
+        <v>377.9299926757812</v>
       </c>
       <c r="H27" t="n">
-        <v>74.72257995605469</v>
+        <v>68.01019287109375</v>
       </c>
       <c r="I27" t="n">
-        <v>380.2417297363281</v>
+        <v>416.7597351074219</v>
       </c>
       <c r="J27" t="n">
-        <v>197.8231964111328</v>
+        <v>79.06112670898438</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>22.25528267810615</v>
       </c>
       <c r="G28" t="n">
-        <v>297.07568359375</v>
+        <v>397.5216064453125</v>
       </c>
       <c r="H28" t="n">
-        <v>77.72401428222656</v>
+        <v>66.06978607177734</v>
       </c>
       <c r="I28" t="n">
-        <v>406.8734130859375</v>
+        <v>444.0226135253906</v>
       </c>
       <c r="J28" t="n">
-        <v>199.9505920410156</v>
+        <v>71.16014862060547</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>22.11853696692908</v>
       </c>
       <c r="G29" t="n">
-        <v>351.1036987304688</v>
+        <v>432.1211547851562</v>
       </c>
       <c r="H29" t="n">
-        <v>85.22320556640625</v>
+        <v>64.95473480224609</v>
       </c>
       <c r="I29" t="n">
-        <v>416.0783996582031</v>
+        <v>446.0419921875</v>
       </c>
       <c r="J29" t="n">
-        <v>208.2702331542969</v>
+        <v>66.24871063232422</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>21.13587239531939</v>
       </c>
       <c r="G30" t="n">
-        <v>410.9000244140625</v>
+        <v>480.5650634765625</v>
       </c>
       <c r="H30" t="n">
-        <v>99.34077453613281</v>
+        <v>64.82373046875</v>
       </c>
       <c r="I30" t="n">
-        <v>384.3519897460938</v>
+        <v>431.0112915039062</v>
       </c>
       <c r="J30" t="n">
-        <v>250.0440521240234</v>
+        <v>88.66202545166016</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>19.80061812897557</v>
       </c>
       <c r="G31" t="n">
-        <v>466.159423828125</v>
+        <v>478.0744934082031</v>
       </c>
       <c r="H31" t="n">
-        <v>133.123291015625</v>
+        <v>68.22401428222656</v>
       </c>
       <c r="I31" t="n">
-        <v>335.9430236816406</v>
+        <v>400.9338684082031</v>
       </c>
       <c r="J31" t="n">
-        <v>296.781005859375</v>
+        <v>97.23719024658203</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>20.55168297688286</v>
       </c>
       <c r="G32" t="n">
-        <v>232.1282043457031</v>
+        <v>306.4522094726562</v>
       </c>
       <c r="H32" t="n">
-        <v>85.78191375732422</v>
+        <v>76.62141418457031</v>
       </c>
       <c r="I32" t="n">
-        <v>232.9860229492188</v>
+        <v>106.4724197387695</v>
       </c>
       <c r="J32" t="n">
-        <v>261.6847534179688</v>
+        <v>97.28865051269531</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>22.96934284445093</v>
       </c>
       <c r="G33" t="n">
-        <v>237.8875579833984</v>
+        <v>325.0715026855469</v>
       </c>
       <c r="H33" t="n">
-        <v>82.94402313232422</v>
+        <v>75.01103210449219</v>
       </c>
       <c r="I33" t="n">
-        <v>272.0005798339844</v>
+        <v>140.0642547607422</v>
       </c>
       <c r="J33" t="n">
-        <v>246.6794128417969</v>
+        <v>95.67475891113281</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>24.40915250803127</v>
       </c>
       <c r="G34" t="n">
-        <v>244.8527374267578</v>
+        <v>339.5101013183594</v>
       </c>
       <c r="H34" t="n">
-        <v>78.19288635253906</v>
+        <v>74.94263458251953</v>
       </c>
       <c r="I34" t="n">
-        <v>292.3470764160156</v>
+        <v>191.2327423095703</v>
       </c>
       <c r="J34" t="n">
-        <v>241.693115234375</v>
+        <v>97.02891540527344</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>26.0811880993595</v>
       </c>
       <c r="G35" t="n">
-        <v>258.215087890625</v>
+        <v>354.135009765625</v>
       </c>
       <c r="H35" t="n">
-        <v>80.58269500732422</v>
+        <v>70.95037841796875</v>
       </c>
       <c r="I35" t="n">
-        <v>317.5078735351562</v>
+        <v>276.9271240234375</v>
       </c>
       <c r="J35" t="n">
-        <v>213.7942810058594</v>
+        <v>88.90644073486328</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>26.87614780904968</v>
       </c>
       <c r="G36" t="n">
-        <v>268.6467590332031</v>
+        <v>369.6742858886719</v>
       </c>
       <c r="H36" t="n">
-        <v>74.35591888427734</v>
+        <v>68.76690673828125</v>
       </c>
       <c r="I36" t="n">
-        <v>333.1982116699219</v>
+        <v>360.2562255859375</v>
       </c>
       <c r="J36" t="n">
-        <v>205.1046295166016</v>
+        <v>86.81737518310547</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>27.16629873490772</v>
       </c>
       <c r="G37" t="n">
-        <v>295.93505859375</v>
+        <v>387.9215698242188</v>
       </c>
       <c r="H37" t="n">
-        <v>78.57289123535156</v>
+        <v>65.10723114013672</v>
       </c>
       <c r="I37" t="n">
-        <v>357.8216857910156</v>
+        <v>402.7731628417969</v>
       </c>
       <c r="J37" t="n">
-        <v>204.3884124755859</v>
+        <v>78.70313262939453</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>27.25598473560972</v>
       </c>
       <c r="G38" t="n">
-        <v>348.4121398925781</v>
+        <v>434.806884765625</v>
       </c>
       <c r="H38" t="n">
-        <v>83.72336578369141</v>
+        <v>62.45664978027344</v>
       </c>
       <c r="I38" t="n">
-        <v>402.0240478515625</v>
+        <v>419.0673828125</v>
       </c>
       <c r="J38" t="n">
-        <v>213.4441223144531</v>
+        <v>69.04360198974609</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>26.04628332899345</v>
       </c>
       <c r="G39" t="n">
-        <v>430.3754577636719</v>
+        <v>467.3253173828125</v>
       </c>
       <c r="H39" t="n">
-        <v>103.6370010375977</v>
+        <v>65.94818115234375</v>
       </c>
       <c r="I39" t="n">
-        <v>366.6996154785156</v>
+        <v>414.5251159667969</v>
       </c>
       <c r="J39" t="n">
-        <v>252.3354339599609</v>
+        <v>106.1252746582031</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>23.96978635149335</v>
       </c>
       <c r="G40" t="n">
-        <v>476.7695922851562</v>
+        <v>477.242919921875</v>
       </c>
       <c r="H40" t="n">
-        <v>127.9611663818359</v>
+        <v>66.05396270751953</v>
       </c>
       <c r="I40" t="n">
-        <v>335.7643127441406</v>
+        <v>400.1837768554688</v>
       </c>
       <c r="J40" t="n">
-        <v>295.9803161621094</v>
+        <v>113.0264511108398</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>25.6116837653232</v>
       </c>
       <c r="G41" t="n">
-        <v>229.6124267578125</v>
+        <v>308.0150146484375</v>
       </c>
       <c r="H41" t="n">
-        <v>84.64994812011719</v>
+        <v>74.21054840087891</v>
       </c>
       <c r="I41" t="n">
-        <v>221.8557586669922</v>
+        <v>62.74175643920898</v>
       </c>
       <c r="J41" t="n">
-        <v>249.1697845458984</v>
+        <v>109.5414581298828</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>28.41067839248494</v>
       </c>
       <c r="G42" t="n">
-        <v>235.8754730224609</v>
+        <v>321.2321472167969</v>
       </c>
       <c r="H42" t="n">
-        <v>82.10093688964844</v>
+        <v>74.99517059326172</v>
       </c>
       <c r="I42" t="n">
-        <v>242.5464630126953</v>
+        <v>89.84915161132812</v>
       </c>
       <c r="J42" t="n">
-        <v>244.4250183105469</v>
+        <v>111.972412109375</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>30.68040031937237</v>
       </c>
       <c r="G43" t="n">
-        <v>244.3303833007812</v>
+        <v>339.0533447265625</v>
       </c>
       <c r="H43" t="n">
-        <v>84.35772705078125</v>
+        <v>73.14847564697266</v>
       </c>
       <c r="I43" t="n">
-        <v>257.3894348144531</v>
+        <v>132.4801483154297</v>
       </c>
       <c r="J43" t="n">
-        <v>234.6861114501953</v>
+        <v>114.3568267822266</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>32.34762367758118</v>
       </c>
       <c r="G44" t="n">
-        <v>256.8442077636719</v>
+        <v>353.7920837402344</v>
       </c>
       <c r="H44" t="n">
-        <v>79.40482330322266</v>
+        <v>70.87636566162109</v>
       </c>
       <c r="I44" t="n">
-        <v>277.5990905761719</v>
+        <v>212.0167541503906</v>
       </c>
       <c r="J44" t="n">
-        <v>213.6499938964844</v>
+        <v>101.1157073974609</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>33.26712421235609</v>
       </c>
       <c r="G45" t="n">
-        <v>267.8805236816406</v>
+        <v>366.5393981933594</v>
       </c>
       <c r="H45" t="n">
-        <v>76.61515045166016</v>
+        <v>68.12689208984375</v>
       </c>
       <c r="I45" t="n">
-        <v>294.3499755859375</v>
+        <v>291.3672790527344</v>
       </c>
       <c r="J45" t="n">
-        <v>204.3350372314453</v>
+        <v>92.97450256347656</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>33.39925272231932</v>
       </c>
       <c r="G46" t="n">
-        <v>310.7630310058594</v>
+        <v>391.9930725097656</v>
       </c>
       <c r="H46" t="n">
-        <v>75.00518035888672</v>
+        <v>66.03684997558594</v>
       </c>
       <c r="I46" t="n">
-        <v>324.2673645019531</v>
+        <v>358.1854858398438</v>
       </c>
       <c r="J46" t="n">
-        <v>208.5027465820312</v>
+        <v>87.16875457763672</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>32.83385481517335</v>
       </c>
       <c r="G47" t="n">
-        <v>362.5011291503906</v>
+        <v>428.8210754394531</v>
       </c>
       <c r="H47" t="n">
-        <v>85.06493377685547</v>
+        <v>65.46334838867188</v>
       </c>
       <c r="I47" t="n">
-        <v>361.2174072265625</v>
+        <v>384.8817749023438</v>
       </c>
       <c r="J47" t="n">
-        <v>212.7277069091797</v>
+        <v>79.84149932861328</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>31.22587875804939</v>
       </c>
       <c r="G48" t="n">
-        <v>444.8762512207031</v>
+        <v>465.9674987792969</v>
       </c>
       <c r="H48" t="n">
-        <v>106.2592620849609</v>
+        <v>69.186767578125</v>
       </c>
       <c r="I48" t="n">
-        <v>345.7300109863281</v>
+        <v>404.0374755859375</v>
       </c>
       <c r="J48" t="n">
-        <v>257.3629150390625</v>
+        <v>113.1469421386719</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>28.00050845971687</v>
       </c>
       <c r="G49" t="n">
-        <v>486.8030700683594</v>
+        <v>468.8681335449219</v>
       </c>
       <c r="H49" t="n">
-        <v>128.1233520507812</v>
+        <v>72.02201843261719</v>
       </c>
       <c r="I49" t="n">
-        <v>301.8662109375</v>
+        <v>403.4420471191406</v>
       </c>
       <c r="J49" t="n">
-        <v>313.0148620605469</v>
+        <v>123.5100326538086</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>32.75859992753161</v>
       </c>
       <c r="G50" t="n">
-        <v>232.708984375</v>
+        <v>316.8000183105469</v>
       </c>
       <c r="H50" t="n">
-        <v>87.049072265625</v>
+        <v>68.58819580078125</v>
       </c>
       <c r="I50" t="n">
-        <v>210.6865692138672</v>
+        <v>30.68640327453613</v>
       </c>
       <c r="J50" t="n">
-        <v>263.6728210449219</v>
+        <v>126.4794921875</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>35.60454595063857</v>
       </c>
       <c r="G51" t="n">
-        <v>238.467529296875</v>
+        <v>327.5875549316406</v>
       </c>
       <c r="H51" t="n">
-        <v>82.76811218261719</v>
+        <v>69.308349609375</v>
       </c>
       <c r="I51" t="n">
-        <v>227.5082092285156</v>
+        <v>56.16806030273438</v>
       </c>
       <c r="J51" t="n">
-        <v>236.6968231201172</v>
+        <v>130.7253723144531</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>38.13811789539464</v>
       </c>
       <c r="G52" t="n">
-        <v>246.0290832519531</v>
+        <v>340.5584411621094</v>
       </c>
       <c r="H52" t="n">
-        <v>81.68391418457031</v>
+        <v>66.83644104003906</v>
       </c>
       <c r="I52" t="n">
-        <v>217.6404113769531</v>
+        <v>84.01107025146484</v>
       </c>
       <c r="J52" t="n">
-        <v>237.0694122314453</v>
+        <v>124.4845886230469</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>39.1380055059179</v>
       </c>
       <c r="G53" t="n">
-        <v>256.3904724121094</v>
+        <v>354.8152160644531</v>
       </c>
       <c r="H53" t="n">
-        <v>77.86149597167969</v>
+        <v>67.71730041503906</v>
       </c>
       <c r="I53" t="n">
-        <v>232.4505920410156</v>
+        <v>138.7785949707031</v>
       </c>
       <c r="J53" t="n">
-        <v>214.4212341308594</v>
+        <v>119.4997634887695</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>40.17007780104868</v>
       </c>
       <c r="G54" t="n">
-        <v>278.8951721191406</v>
+        <v>371.1657104492188</v>
       </c>
       <c r="H54" t="n">
-        <v>79.47698211669922</v>
+        <v>67.68288421630859</v>
       </c>
       <c r="I54" t="n">
-        <v>254.7887573242188</v>
+        <v>225.9752655029297</v>
       </c>
       <c r="J54" t="n">
-        <v>208.2550811767578</v>
+        <v>102.0815277099609</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>40.31777520333784</v>
       </c>
       <c r="G55" t="n">
-        <v>317.9292602539062</v>
+        <v>389.0121765136719</v>
       </c>
       <c r="H55" t="n">
-        <v>80.2855224609375</v>
+        <v>67.46414184570312</v>
       </c>
       <c r="I55" t="n">
-        <v>269.0380249023438</v>
+        <v>298.1010437011719</v>
       </c>
       <c r="J55" t="n">
-        <v>198.9110412597656</v>
+        <v>90.56729125976562</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>38.89328689858721</v>
       </c>
       <c r="G56" t="n">
-        <v>378.2681274414062</v>
+        <v>426.5311279296875</v>
       </c>
       <c r="H56" t="n">
-        <v>89.74917602539062</v>
+        <v>68.48862457275391</v>
       </c>
       <c r="I56" t="n">
-        <v>308.4400634765625</v>
+        <v>353.4007263183594</v>
       </c>
       <c r="J56" t="n">
-        <v>205.4590301513672</v>
+        <v>87.93304443359375</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>36.03490394546852</v>
       </c>
       <c r="G57" t="n">
-        <v>449.3413391113281</v>
+        <v>458.4796752929688</v>
       </c>
       <c r="H57" t="n">
-        <v>104.3039627075195</v>
+        <v>70.65411376953125</v>
       </c>
       <c r="I57" t="n">
-        <v>330.7335815429688</v>
+        <v>390.8330383300781</v>
       </c>
       <c r="J57" t="n">
-        <v>253.923828125</v>
+        <v>107.6480331420898</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>33.0417017672229</v>
       </c>
       <c r="G58" t="n">
-        <v>502.7648010253906</v>
+        <v>462.9395751953125</v>
       </c>
       <c r="H58" t="n">
-        <v>122.0701217651367</v>
+        <v>75.49303436279297</v>
       </c>
       <c r="I58" t="n">
-        <v>303.6697387695312</v>
+        <v>401.7571105957031</v>
       </c>
       <c r="J58" t="n">
-        <v>313.4374694824219</v>
+        <v>135.5997772216797</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>43.98768298598323</v>
       </c>
       <c r="G59" t="n">
-        <v>246.0543975830078</v>
+        <v>340.6910095214844</v>
       </c>
       <c r="H59" t="n">
-        <v>83.00596618652344</v>
+        <v>62.74079513549805</v>
       </c>
       <c r="I59" t="n">
-        <v>204.2222442626953</v>
+        <v>16.6608715057373</v>
       </c>
       <c r="J59" t="n">
-        <v>232.1000366210938</v>
+        <v>142.6910858154297</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>45.7006317110727</v>
       </c>
       <c r="G60" t="n">
-        <v>256.2451171875</v>
+        <v>351.7964172363281</v>
       </c>
       <c r="H60" t="n">
-        <v>82.65677642822266</v>
+        <v>63.2619514465332</v>
       </c>
       <c r="I60" t="n">
-        <v>200.4942779541016</v>
+        <v>41.90583801269531</v>
       </c>
       <c r="J60" t="n">
-        <v>230.9711303710938</v>
+        <v>141.8634948730469</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>46.67965674781412</v>
       </c>
       <c r="G61" t="n">
-        <v>271.0495300292969</v>
+        <v>362.1313171386719</v>
       </c>
       <c r="H61" t="n">
-        <v>80.58917236328125</v>
+        <v>65.90340423583984</v>
       </c>
       <c r="I61" t="n">
-        <v>204.3847198486328</v>
+        <v>88.08222198486328</v>
       </c>
       <c r="J61" t="n">
-        <v>207.1341094970703</v>
+        <v>132.6573638916016</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>47.53914448671719</v>
       </c>
       <c r="G62" t="n">
-        <v>291.0111999511719</v>
+        <v>376.4511413574219</v>
       </c>
       <c r="H62" t="n">
-        <v>80.64014434814453</v>
+        <v>66.8011474609375</v>
       </c>
       <c r="I62" t="n">
-        <v>216.7763824462891</v>
+        <v>150.8682708740234</v>
       </c>
       <c r="J62" t="n">
-        <v>201.6451263427734</v>
+        <v>123.1594924926758</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>47.07121651777462</v>
       </c>
       <c r="G63" t="n">
-        <v>327.7364501953125</v>
+        <v>392.585693359375</v>
       </c>
       <c r="H63" t="n">
-        <v>81.85556793212891</v>
+        <v>68.24248504638672</v>
       </c>
       <c r="I63" t="n">
-        <v>220.8420257568359</v>
+        <v>234.6793975830078</v>
       </c>
       <c r="J63" t="n">
-        <v>196.6548309326172</v>
+        <v>103.5703353881836</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>45.67156598130153</v>
       </c>
       <c r="G64" t="n">
-        <v>383.2745361328125</v>
+        <v>422.2860107421875</v>
       </c>
       <c r="H64" t="n">
-        <v>91.36756134033203</v>
+        <v>67.56290435791016</v>
       </c>
       <c r="I64" t="n">
-        <v>254.4059600830078</v>
+        <v>311.186767578125</v>
       </c>
       <c r="J64" t="n">
-        <v>203.0722198486328</v>
+        <v>98.85111236572266</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>42.51104340916319</v>
       </c>
       <c r="G65" t="n">
-        <v>454.0627746582031</v>
+        <v>452.9619140625</v>
       </c>
       <c r="H65" t="n">
-        <v>102.2630920410156</v>
+        <v>71.94403839111328</v>
       </c>
       <c r="I65" t="n">
-        <v>303.5044860839844</v>
+        <v>367.1852416992188</v>
       </c>
       <c r="J65" t="n">
-        <v>247.2852325439453</v>
+        <v>112.5197372436523</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>54.37577254606605</v>
       </c>
       <c r="G66" t="n">
-        <v>269.4301452636719</v>
+        <v>362.8956909179688</v>
       </c>
       <c r="H66" t="n">
-        <v>78.07658386230469</v>
+        <v>60.59445571899414</v>
       </c>
       <c r="I66" t="n">
-        <v>175.8022308349609</v>
+        <v>-10.15574741363525</v>
       </c>
       <c r="J66" t="n">
-        <v>231.6685028076172</v>
+        <v>145.1906280517578</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>55.07062752917076</v>
       </c>
       <c r="G67" t="n">
-        <v>287.9454040527344</v>
+        <v>373.2740783691406</v>
       </c>
       <c r="H67" t="n">
-        <v>82.05747985839844</v>
+        <v>62.79680633544922</v>
       </c>
       <c r="I67" t="n">
-        <v>182.3991851806641</v>
+        <v>28.79001045227051</v>
       </c>
       <c r="J67" t="n">
-        <v>217.6983947753906</v>
+        <v>145.2345123291016</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>54.82432856758766</v>
       </c>
       <c r="G68" t="n">
-        <v>310.1720886230469</v>
+        <v>385.4759216308594</v>
       </c>
       <c r="H68" t="n">
-        <v>81.24530029296875</v>
+        <v>64.10661315917969</v>
       </c>
       <c r="I68" t="n">
-        <v>179.9828643798828</v>
+        <v>92.76446533203125</v>
       </c>
       <c r="J68" t="n">
-        <v>211.6112518310547</v>
+        <v>132.8645782470703</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>54.18769809434324</v>
       </c>
       <c r="G69" t="n">
-        <v>343.4303283691406</v>
+        <v>401.7811279296875</v>
       </c>
       <c r="H69" t="n">
-        <v>82.47316741943359</v>
+        <v>67.83123779296875</v>
       </c>
       <c r="I69" t="n">
-        <v>185.9037780761719</v>
+        <v>173.09423828125</v>
       </c>
       <c r="J69" t="n">
-        <v>192.3558502197266</v>
+        <v>122.7646560668945</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>51.347187815424</v>
       </c>
       <c r="G70" t="n">
-        <v>395.218994140625</v>
+        <v>425.6632080078125</v>
       </c>
       <c r="H70" t="n">
-        <v>92.39240264892578</v>
+        <v>66.47616577148438</v>
       </c>
       <c r="I70" t="n">
-        <v>210.7202301025391</v>
+        <v>261.677490234375</v>
       </c>
       <c r="J70" t="n">
-        <v>196.422607421875</v>
+        <v>105.1587524414062</v>
       </c>
     </row>
   </sheetData>
